--- a/results/architectures.xlsx
+++ b/results/architectures.xlsx
@@ -8,32 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\OneDrive\Dokumente\Sc_Master\Masterthesis\Project\DomAdapt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF57C9-94D9-4D84-B73A-867058405DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE52B32-3E28-4B77-98C7-837ACFAFE543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{96103ACD-C621-4E5C-95A4-4D53CBBF6643}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>architecture</t>
   </si>
@@ -65,6 +58,9 @@
     <t>batchsize</t>
   </si>
   <si>
+    <t>history</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -74,69 +70,169 @@
     <t>no</t>
   </si>
   <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>relu</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>used_in_models</t>
-  </si>
-  <si>
     <t>0.005</t>
   </si>
   <si>
+    <t>0.0001</t>
+  </si>
+  <si>
     <t>simulations</t>
   </si>
   <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>sigmoid</t>
-  </si>
-  <si>
-    <t>mlp0, mlp9, mlp10</t>
-  </si>
-  <si>
-    <t>mlp0, mlp5</t>
-  </si>
-  <si>
-    <t>mlp6, mlp7, mlp8</t>
+    <t xml:space="preserve">model </t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>mlp0</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>mlp0A</t>
+  </si>
+  <si>
+    <t>mlp5</t>
+  </si>
+  <si>
+    <t>pretraining</t>
+  </si>
+  <si>
+    <t>mlp6</t>
+  </si>
+  <si>
+    <t>mlp7</t>
+  </si>
+  <si>
+    <t>mlp8</t>
+  </si>
+  <si>
+    <t>mlp9</t>
+  </si>
+  <si>
+    <t>mlp10</t>
+  </si>
+  <si>
+    <t>Bily Kriz</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>pretrained</t>
+  </si>
+  <si>
+    <t>mlp4</t>
+  </si>
+  <si>
+    <t>mlp11</t>
+  </si>
+  <si>
+    <t>mlp12</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>AP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,10 +247,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -468,197 +572,685 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FFBB2F-59E0-4416-8FF4-A824CE0A4514}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1024" max="1025" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>256</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>256</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>128</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4395AD8C-1FCD-4680-85A7-4274DD4D881C}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>256</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>32</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>256</v>
-      </c>
-      <c r="E3">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>256</v>
-      </c>
-      <c r="E4">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>128</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>